--- a/results/jdk_3_resume_score.xlsx
+++ b/results/jdk_3_resume_score.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,7 +500,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>12.45294966999656</v>
+        <v>4.512309198289638</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -516,45 +516,111 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.662632255881342</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>CloudPhysician's Vital Extraction Challenge</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7.471915136603499</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Multi Model Data Analysis for Annotation of Human Activities</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>6.29931344072947</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>FaceNet Implementation</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.23845920014295</v>
+        <v>0</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Cloudphysician's Vital Extraction Challenge</t>
+          <t>SHAMIYANA APP</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>7.471903373311245</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Multi Model Data Analysis for Annotation of Human Activities</t>
+          <t>RAPID</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.766555826831708</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>SMART SENSING MIDDLEWARE</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Cloudphysician's Vital Extraction Challenge</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Multi Model Data Analysis for Annotation of Human Activities</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Website for the Literature Society of the college</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Post-processing of Large Language Models</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results/jdk_3_resume_score.xlsx
+++ b/results/jdk_3_resume_score.xlsx
@@ -500,7 +500,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.512309198289638</v>
+        <v>3.96675092036255</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>8.79031741411522</v>
+        <v>7.789308099070766</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7.471915136603499</v>
+        <v>6.486603965511964</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>6.29931344072947</v>
+        <v>5.557842537230018</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>

--- a/results/jdk_3_resume_score.xlsx
+++ b/results/jdk_3_resume_score.xlsx
@@ -500,7 +500,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.96675092036255</v>
+        <v>4.125059742542763</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>7.789308099070766</v>
+        <v>6.231446479256613</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6.486603965511964</v>
+        <v>4.864952974133973</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>5.557842537230018</v>
+        <v>3.572898773933583</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -540,7 +540,7 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.830940742846879</v>
       </c>
     </row>
     <row r="3">
@@ -548,7 +548,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>2.724580040526347</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -556,7 +556,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.333436841424388</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.115723239628307</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -584,7 +584,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>5.203216707823461</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>6.486603965511964</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>3.579079026444063</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>5.543967131514354</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>

--- a/results/jdk_3_resume_score.xlsx
+++ b/results/jdk_3_resume_score.xlsx
@@ -500,7 +500,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.125059742542763</v>
+        <v>83.07454896041088</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>6.231446479256613</v>
+        <v>62.31446479256613</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4.864952974133973</v>
+        <v>48.64952974133973</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>3.572898773933583</v>
+        <v>71.45797547867166</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -540,7 +540,7 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>1.830940742846879</v>
+        <v>54.93388416002502</v>
       </c>
     </row>
     <row r="3">
@@ -548,7 +548,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.724580040526347</v>
+        <v>76.28824113473772</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -556,7 +556,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2.333436841424388</v>
+        <v>46.66873682848776</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3.115723239628307</v>
+        <v>62.31446479256613</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -584,7 +584,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5.203216707823461</v>
+        <v>89.54740269960071</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>6.486603965511964</v>
+        <v>64.86603965511964</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.579079026444063</v>
+        <v>71.58158052888125</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>5.543967131514354</v>
+        <v>55.43967131514354</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
